--- a/demo/py_outputs/Center_not_found.xlsx
+++ b/demo/py_outputs/Center_not_found.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>zone</t>
   </si>
@@ -127,16 +127,19 @@
     <t>Z101|UTTAR PRADESH</t>
   </si>
   <si>
+    <t>R102|HATHRAS</t>
+  </si>
+  <si>
     <t>R101|Ayodhya</t>
   </si>
   <si>
-    <t>R102|HATHRAS</t>
+    <t>Tarabganj</t>
   </si>
   <si>
     <t>Nichlaul</t>
   </si>
   <si>
-    <t>Mahoba</t>
+    <t>margubpur-02_1557</t>
   </si>
   <si>
     <t>daulatabad-_1040</t>
@@ -154,7 +157,7 @@
     <t>smaspur_1035</t>
   </si>
   <si>
-    <t>salarpur_2065</t>
+    <t>ACTIVE</t>
   </si>
   <si>
     <t>INITIATED</t>
@@ -169,7 +172,7 @@
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>08:30:00</t>
   </si>
   <si>
     <t>15:11:00</t>
@@ -187,12 +190,12 @@
     <t>10:19:00</t>
   </si>
   <si>
-    <t>9:00:00</t>
-  </si>
-  <si>
     <t>7days</t>
   </si>
   <si>
+    <t>MARGUBPUR 02</t>
+  </si>
+  <si>
     <t xml:space="preserve">members home </t>
   </si>
   <si>
@@ -205,9 +208,6 @@
     <t>shns</t>
   </si>
   <si>
-    <t xml:space="preserve">salarpur </t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -223,16 +223,19 @@
     <t>samaspur</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
-    <t>low</t>
+    <t>759|HIMANSHU KESARWANI</t>
   </si>
   <si>
     <t>272|Neelima Vanguru</t>
   </si>
   <si>
-    <t>692|Apsar Mohammad</t>
+    <t>2024-02-22</t>
   </si>
   <si>
     <t>11/8/2023</t>
@@ -244,12 +247,12 @@
     <t>11/4/2023</t>
   </si>
   <si>
-    <t>4/30/2024</t>
-  </si>
-  <si>
     <t>ext_upi</t>
   </si>
   <si>
+    <t>2024-02-22T06:43:03.572Z</t>
+  </si>
+  <si>
     <t>2023-11-07T22:41:43.517Z</t>
   </si>
   <si>
@@ -265,7 +268,7 @@
     <t>2023-11-04T04:49:47.702Z</t>
   </si>
   <si>
-    <t>2024-04-30T03:22:10.774Z</t>
+    <t>2024-04-10T05:47:48.571Z</t>
   </si>
   <si>
     <t>2023-11-07T22:42:05.530Z</t>
@@ -281,9 +284,6 @@
   </si>
   <si>
     <t>2023-11-04T04:50:04.920Z</t>
-  </si>
-  <si>
-    <t>2024-04-30T03:22:47.338Z</t>
   </si>
 </sst>
 </file>
@@ -762,31 +762,31 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1040</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2">
         <v>28.3806904</v>
@@ -804,25 +804,25 @@
         <v>122006</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s">
         <v>77</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2">
         <v>272</v>
       </c>
       <c r="AA2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB2">
         <v>272</v>
@@ -833,31 +833,31 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1039</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3">
         <v>28.3806345</v>
@@ -875,25 +875,25 @@
         <v>122003</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
         <v>77</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3">
         <v>272</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB3">
         <v>272</v>
@@ -904,31 +904,31 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1038</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4">
         <v>28.3806927</v>
@@ -946,25 +946,25 @@
         <v>122003</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
         <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4">
         <v>273</v>
       </c>
       <c r="AA4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4">
         <v>273</v>
@@ -975,31 +975,31 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1037</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>28.3806868</v>
@@ -1017,25 +1017,25 @@
         <v>122002</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
         <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5">
         <v>272</v>
       </c>
       <c r="AA5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB5">
         <v>272</v>
@@ -1046,31 +1046,31 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1035</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <v>28.3806946</v>
@@ -1088,25 +1088,25 @@
         <v>122003</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
         <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z6">
         <v>272</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB6">
         <v>272</v>
@@ -1114,73 +1114,70 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>2065</v>
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>1557</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>26.9084763</v>
       </c>
       <c r="L7">
-        <v>25.2180024</v>
+        <v>81.94114500000001</v>
       </c>
       <c r="M7">
-        <v>79.8900565</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
+        <v>742744241344</v>
+      </c>
+      <c r="N7">
+        <v>1661</v>
       </c>
       <c r="O7">
-        <v>1979</v>
-      </c>
-      <c r="P7">
-        <v>210433</v>
+        <v>271403</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
       </c>
       <c r="X7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7">
-        <v>692</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB7">
-        <v>692</v>
+        <v>78</v>
+      </c>
+      <c r="Y7">
+        <v>455</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
